--- a/mAuditoriaPV/formatos/CAJAS UNICAS DO.xlsx
+++ b/mAuditoriaPV/formatos/CAJAS UNICAS DO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="15" windowWidth="20730" windowHeight="11640"/>
+    <workbookView xWindow="-105" yWindow="135" windowWidth="20730" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,16 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>056100024798</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +45,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,9 +85,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -88,11 +102,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -154,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -206,7 +219,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -400,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,159 +424,123 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
-        <v>7500435154109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>7500435112116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>7501001165253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>7500435019828</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>7501001303464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>7501001394912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7506309837246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7501045403908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7501025404604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>7501058757449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>7506306211100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>7506306215627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>7509546075068</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>7506306238688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
         <v>7509546058962</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>7509546651590</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>7509546068343</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>7509546651590</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>7506306238640</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>7501214100058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>7501200480515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>7501017006465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>7509546659190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7501071302671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7500435122603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>7501035903029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>7802800735518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>7802800736027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>7802800736041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7501279710148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>7501058752086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>7501058618696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>7503004361229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>7500478014033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>7503004361014</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>7891024183182</v>
-      </c>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>7509546659190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>7501035908239</v>
-      </c>
+      <c r="A21" s="3"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>7509546651132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>7702031618737</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>7509546061832</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>7500435122603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
